--- a/Process Results/Unified_IBNP_USH.xlsx
+++ b/Process Results/Unified_IBNP_USH.xlsx
@@ -3733,14 +3733,14 @@
         <v>0.001390420184603347</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.006105786406027641</v>
+        <v>0.006105786406027643</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.006105786406027641</v>
+        <v>0.006105786406027643</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.398612903991128</v>
+        <v>0.3986129039911279</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0.02440728113917012</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0726086821303645</v>
+        <v>0.07260868213036452</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0726086821303645</v>
+        <v>0.07260868213036452</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6404629416206545</v>
+        <v>0.6404629416206543</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>0.04650377707379465</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1126666490572653</v>
+        <v>0.1126666490572654</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1126666490572653</v>
+        <v>0.1126666490572654</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.899435840063645</v>
+        <v>0.8994358400636447</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.07331538237026343</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1679420565183042</v>
+        <v>0.1679420565183043</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1679420565183042</v>
+        <v>0.1679420565183043</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,7 +3879,7 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9220186145416772</v>
+        <v>0.922018614541677</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0.1533178598983409</v>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9300295574800957</v>
+        <v>0.9300295574800955</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0.2310104110170519</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3643068912110818</v>
+        <v>0.3643068912110819</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3643068912110818</v>
+        <v>0.3643068912110819</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9317820151955803</v>
+        <v>0.9317820151955801</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.2383147014680016</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4046328245208652</v>
+        <v>0.4046328245208653</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.4046328245208652</v>
+        <v>0.4046328245208653</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9667104093222587</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0.274358475360165</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4327762997123223</v>
+        <v>0.4327762997123224</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4327762997123223</v>
+        <v>0.4327762997123224</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,7 +4031,7 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9667104093222587</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0.355154331161509</v>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9667104093222587</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.3976127924758553</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.5423703294527551</v>
+        <v>0.5423703294527553</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.5423703294527551</v>
+        <v>0.5423703294527553</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,7 +4107,7 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9998536919465648</v>
+        <v>0.9998536919465646</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0.4821653511259605</v>
@@ -5283,7 +5283,7 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>6.208312568523873</v>
+        <v>6.208312568523872</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>1.321089134343694</v>
@@ -5292,7 +5292,7 @@
         <v>1.007364378767256</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>3.022764011870581</v>
+        <v>3.022764011870582</v>
       </c>
       <c r="F44" s="4" t="n">
         <v>1.146011677422187</v>
@@ -5661,7 +5661,7 @@
         <v>2.540958812563751</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>2.080922455081532</v>
+        <v>2.080922455081531</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>1.059402647508814</v>
@@ -5676,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>3.462953660680648</v>
+        <v>3.462953660680649</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>13.01059126463586</v>
+        <v>13.01059126463587</v>
       </c>
       <c r="C50" s="4" t="n">
         <v>1.046087148100987</v>
@@ -6707,7 +6707,7 @@
         <v>0.006824243316637208</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.006105786406027641</v>
+        <v>0.006105786406027643</v>
       </c>
       <c r="D2" s="34" t="n">
         <v>0.001390420184603347</v>
@@ -6728,7 +6728,7 @@
         <v>0.006376425011792599</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.006105786406027641</v>
+        <v>0.006105786406027643</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6770,13 +6770,13 @@
         <v>0.064847937683951</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.0726086821303645</v>
+        <v>0.07260868213036452</v>
       </c>
       <c r="D3" s="34" t="n">
         <v>0.02440728113917012</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.398612903991128</v>
+        <v>0.3986129039911279</v>
       </c>
       <c r="F3" s="34" t="n">
         <v>0.001200174910783084</v>
@@ -6791,7 +6791,7 @@
         <v>0.3654513376629315</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.0726086821303645</v>
+        <v>0.07260868213036452</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
@@ -6834,13 +6834,13 @@
         <v>0.2143002022439321</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.1126666490572653</v>
+        <v>0.1126666490572654</v>
       </c>
       <c r="D4" s="34" t="n">
         <v>0.04650377707379465</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6404629416206545</v>
+        <v>0.6404629416206543</v>
       </c>
       <c r="F4" s="34" t="n">
         <v>0.007368736951114902</v>
@@ -6855,7 +6855,7 @@
         <v>0.6449235541982882</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.1126666490572653</v>
+        <v>0.1126666490572654</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
@@ -6898,13 +6898,13 @@
         <v>0.249447198289054</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.1679420565183042</v>
+        <v>0.1679420565183043</v>
       </c>
       <c r="D5" s="34" t="n">
         <v>0.07331538237026343</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.899435840063645</v>
+        <v>0.8994358400636447</v>
       </c>
       <c r="F5" s="34" t="n">
         <v>0.01095723118219942</v>
@@ -6919,7 +6919,7 @@
         <v>0.8020818257868531</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.1679420565183042</v>
+        <v>0.1679420565183043</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
@@ -6968,7 +6968,7 @@
         <v>0.1533178598983409</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9220186145416772</v>
+        <v>0.922018614541677</v>
       </c>
       <c r="F6" s="34" t="n">
         <v>0.02877246139433323</v>
@@ -7026,13 +7026,13 @@
         <v>0.3981204036091471</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.3643068912110818</v>
+        <v>0.3643068912110819</v>
       </c>
       <c r="D7" s="34" t="n">
         <v>0.2310104110170519</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9300295574800957</v>
+        <v>0.9300295574800955</v>
       </c>
       <c r="F7" s="34" t="n">
         <v>0.03839335052220349</v>
@@ -7047,14 +7047,14 @@
         <v>0.8302856175670863</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.3643068912110818</v>
+        <v>0.3643068912110819</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.055091172759052</v>
+        <v>1.055091172759053</v>
       </c>
       <c r="O7" s="22" t="n">
         <v>1.110692205617429</v>
@@ -7087,16 +7087,16 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.4200533235432823</v>
+        <v>0.4200533235432824</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.4046328245208652</v>
+        <v>0.4046328245208653</v>
       </c>
       <c r="D8" s="34" t="n">
         <v>0.2383147014680016</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9317820151955803</v>
+        <v>0.9317820151955801</v>
       </c>
       <c r="F8" s="34" t="n">
         <v>0.05498067182271489</v>
@@ -7111,7 +7111,7 @@
         <v>0.8312132699456999</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.4046328245208652</v>
+        <v>0.4046328245208653</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
@@ -7151,16 +7151,16 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.4448209168663533</v>
+        <v>0.4448209168663532</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.4327762997123223</v>
+        <v>0.4327762997123224</v>
       </c>
       <c r="D9" s="34" t="n">
         <v>0.274358475360165</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9667104093222587</v>
       </c>
       <c r="F9" s="34" t="n">
         <v>0.06494000123808066</v>
@@ -7175,7 +7175,7 @@
         <v>0.9771258714564072</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.4327762997123223</v>
+        <v>0.4327762997123224</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
@@ -7215,7 +7215,7 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.5078792105009658</v>
+        <v>0.5078792105009657</v>
       </c>
       <c r="C10" s="34" t="n">
         <v>0.5017216028718872</v>
@@ -7224,7 +7224,7 @@
         <v>0.355154331161509</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9667104093222587</v>
       </c>
       <c r="F10" s="34" t="n">
         <v>0.1586761422838225</v>
@@ -7246,7 +7246,7 @@
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.075006694918287</v>
+        <v>1.075006694918288</v>
       </c>
       <c r="O10" s="22" t="n">
         <v>1.081018489832194</v>
@@ -7282,13 +7282,13 @@
         <v>0.5459735514983525</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.5423703294527551</v>
+        <v>0.5423703294527553</v>
       </c>
       <c r="D11" s="34" t="n">
         <v>0.3976127924758553</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9667104093222587</v>
       </c>
       <c r="F11" s="34" t="n">
         <v>0.180873309740824</v>
@@ -7303,7 +7303,7 @@
         <v>0.9771258714564072</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.5423703294527551</v>
+        <v>0.5423703294527553</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
@@ -7352,7 +7352,7 @@
         <v>0.4821653511259605</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9998536919465648</v>
+        <v>0.9998536919465646</v>
       </c>
       <c r="F12" s="34" t="n">
         <v>0.2925458523990215</v>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>22582.26416666667</v>
+        <v>22582.26416666666</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9370,13 +9370,13 @@
         <v>100.33</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>622.8800000000001</v>
+        <v>622.88</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>822.8800000000001</v>
+        <v>822.88</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>828.9400000000001</v>
+        <v>828.9399999999999</v>
       </c>
       <c r="W14" s="22" t="n">
         <v>2505.69</v>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>21386.11833333333</v>
+        <v>21386.11833333334</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>5457.24</v>
+        <v>5457.240000000001</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10150,31 +10150,31 @@
         <v>2801.39</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>4928.389999999999</v>
+        <v>4928.39</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>5168.639999999999</v>
+        <v>5168.64</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>5387.419999999999</v>
+        <v>5387.42</v>
       </c>
       <c r="Y20" s="22" t="n">
         <v>5426.77</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>5454.04</v>
+        <v>5454.040000000001</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>5454.04</v>
+        <v>5454.040000000001</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>5454.04</v>
+        <v>5454.040000000001</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>5454.04</v>
+        <v>5454.040000000001</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>5457.24</v>
+        <v>5457.240000000001</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10696,10 +10696,10 @@
         <v>239.97</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>757.64</v>
+        <v>757.6400000000001</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>791.64</v>
+        <v>791.6400000000001</v>
       </c>
       <c r="X24" s="22" t="n">
         <v>832.95</v>

--- a/Process Results/Unified_IBNP_USH.xlsx
+++ b/Process Results/Unified_IBNP_USH.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01359026404222064</v>
+        <v>0.03160413896125241</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.001390420184603347</v>
+        <v>0.02169848352571648</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.006105786406027641</v>
+        <v>0.005859459515748337</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.006105786406027641</v>
+        <v>0.005859459515748337</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.398612903991128</v>
+        <v>0.3994105674408347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02440728113917012</v>
+        <v>0.3415594323996159</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0726086821303645</v>
+        <v>0.08661741507798951</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0726086821303645</v>
+        <v>0.08661741507798951</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6404629416206545</v>
+        <v>0.5857965895224874</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04650377707379465</v>
+        <v>0.6014825043110759</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1126666490572653</v>
+        <v>0.1318001955166895</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1126666490572653</v>
+        <v>0.1318001955166895</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.899435840063645</v>
+        <v>0.8581095531816324</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07331538237026343</v>
+        <v>0.8393119487559624</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1679420565183042</v>
+        <v>0.1911816281830999</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1679420565183042</v>
+        <v>0.1911816281830999</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9220186145416772</v>
+        <v>0.8657194569731543</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1533178598983409</v>
+        <v>0.8477324615644829</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2715423707549268</v>
+        <v>0.269604257857038</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2715423707549268</v>
+        <v>0.269604257857038</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9300295574800957</v>
+        <v>0.8657194569731543</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2310104110170519</v>
+        <v>0.897456380253714</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3643068912110818</v>
+        <v>0.3613443642433827</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3643068912110818</v>
+        <v>0.3613443642433827</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9317820151955803</v>
+        <v>0.8657194569731543</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2383147014680016</v>
+        <v>0.9268980628342349</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4046328245208652</v>
+        <v>0.4010340416332278</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.4046328245208652</v>
+        <v>0.4010340416332278</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9691741204213764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.274358475360165</v>
+        <v>0.9476927220794832</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4327762997123223</v>
+        <v>0.4475108575677204</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4327762997123223</v>
+        <v>0.4475108575677204</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9714285109876195</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.355154331161509</v>
+        <v>0.9485207846294303</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5017216028718872</v>
+        <v>0.5194793812944196</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5017216028718872</v>
+        <v>0.5194793812944196</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9715658159166214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3976127924758553</v>
+        <v>0.9492353176026339</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.5423703294527551</v>
+        <v>0.5623976242347098</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.5423703294527551</v>
+        <v>0.5623976242347098</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9998536919465648</v>
+        <v>0.9997118491908633</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4821653511259605</v>
+        <v>0.970870795846579</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5990883985595801</v>
+        <v>0.6169033234190919</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5990883985595801</v>
+        <v>0.6169033234190919</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1</v>
+        <v>0.9998537133494797</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5751456329710884</v>
+        <v>0.9722462439918923</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6547145826986182</v>
+        <v>0.6684735299025827</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6547145826986182</v>
+        <v>0.6684735299025827</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4186,17 +4186,17 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7212162512287864</v>
+        <v>0.9738054239570044</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.7435985178988479</v>
+        <v>0.7561830328846203</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.7435985178988479</v>
+        <v>0.7561830328846203</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4224,17 +4224,17 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8014980200752398</v>
+        <v>0.9983548089319773</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.815245975517952</v>
+        <v>0.8266806219914945</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.815245975517952</v>
+        <v>0.8266806219914945</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4262,17 +4262,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8413182801032858</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8510476240064262</v>
+        <v>0.8599865132074028</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8510476240064262</v>
+        <v>0.8599865132074028</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,17 +4300,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9428806817818615</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9454995695326721</v>
+        <v>0.948913973524501</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9454995695326721</v>
+        <v>0.948913973524501</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4833,25 +4833,25 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>13.77571916138469</v>
+        <v>3.732769744160178</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.499911516953352</v>
+        <v>1.054127827973395</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.023431692957514</v>
+        <v>1.090461921185051</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>2.637019701877962</v>
+        <v>1.207393581168663</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1</v>
+        <v>1.797432043629493</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.011987252068916</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>1.013101813803253</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>1</v>
@@ -4908,19 +4908,19 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>3.732769744160178</v>
+        <v>14.59087413483722</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.054127827973395</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.090461921185051</v>
+        <v>1.033925402765333</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.207393581168663</v>
+        <v>1.014927782497876</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.797432043629493</v>
+        <v>2.339394091597814</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
@@ -4929,13 +4929,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1</v>
+        <v>1.006798899293988</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>1.009745625664192</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.013101813803253</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>2.855670030517531</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>1</v>
@@ -4983,31 +4983,31 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>14.59087413483722</v>
+        <v>3.884009729868135</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1</v>
+        <v>1.391027753971916</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.033925402765333</v>
+        <v>1.215326651027227</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.014927782497876</v>
+        <v>6.84932147870847</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>2.339394091597814</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>1.00170800027328</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.006798899293988</v>
+        <v>1.065526531169008</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.009745625664192</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>1</v>
@@ -5025,10 +5025,10 @@
         <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>3.670685912104676</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>2.855670030517531</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
         <v>1</v>
@@ -5058,16 +5058,16 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>3.884009729868135</v>
+        <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.391027753971916</v>
+        <v>25.82948442534909</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.215326651027227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>6.84932147870847</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5076,31 +5076,31 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.00170800027328</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.065526531169008</v>
+        <v>1.014253189034089</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>3.05930196801968</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>3.670685912104676</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
@@ -5136,7 +5136,7 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>25.82948442534909</v>
+        <v>68.55200520052004</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>1</v>
@@ -5145,16 +5145,16 @@
         <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1</v>
+        <v>1.000109416931759</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>1.00692971023002</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1</v>
+        <v>1.000060845138981</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.014253189034089</v>
+        <v>1.053536843111663</v>
       </c>
       <c r="J42" s="4" t="n">
         <v>1</v>
@@ -5166,28 +5166,28 @@
         <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.001990302175308</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>1.267263737711397</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>3.05930196801968</v>
+        <v>1.000433141614026</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U42" s="4" t="n">
         <v/>
@@ -5208,58 +5208,58 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v/>
+        <v>6.208312568523873</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>68.55200520052004</v>
+        <v>1.321089134343694</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>1.007364378767256</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1</v>
+        <v>3.022764011870581</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.000109416931759</v>
+        <v>1.146011677422187</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.00692971023002</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.000060845138981</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.053536843111663</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>1.523226132228239</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>1.002862355453336</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.001990302175308</v>
+        <v>3.751697237458224</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.267263737711397</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.000433141614026</v>
+        <v>1.008327170797541</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,46 +5283,46 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>6.208312568523872</v>
+        <v>1</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.321089134343694</v>
+        <v>1.057015463428517</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.007364378767256</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>3.022764011870582</v>
+        <v>11.36259199425597</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.146011677422187</v>
+        <v>1.169381210407419</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>1.034475771044135</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>1.017512242899118</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.523226132228239</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.002862355453336</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>6.025989527183121</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>3.751697237458224</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>1.160992799044132</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1.008327170797541</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>1</v>
@@ -5358,25 +5358,25 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.057015463428517</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E45" s="4" t="n">
-        <v>11.36259199425597</v>
+        <v>1.594763161293894</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.169381210407419</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.034475771044135</v>
+        <v>1.026473821232282</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.017512242899118</v>
+        <v>1.030739575935883</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>1</v>
@@ -5385,16 +5385,16 @@
         <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>9.519750656167981</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>6.025989527183121</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>1.008640001102832</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.160992799044132</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
         <v>1</v>
@@ -5439,34 +5439,34 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v/>
+        <v>1.103950391717188</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.594763161293894</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.026473821232282</v>
+        <v>8.608280254777071</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.030739575935883</v>
+        <v>1.007943929317382</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>2.559935030403921</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>9.519750656167981</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.007792196062582</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.008640001102832</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
         <v>1</v>
@@ -5511,10 +5511,10 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v/>
+        <v>1.011658532806569</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.103950391717188</v>
+        <v>1.672269229296681</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
@@ -5523,31 +5523,31 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>8.608280254777071</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.007943929317382</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v>23.95471404368332</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>2.559935030403921</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1</v>
+        <v>1.038362066493739</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.007792196062582</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,13 +5583,13 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v/>
+        <v>2.540958812563751</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.011658532806569</v>
+        <v>2.080922455081531</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.672269229296681</v>
+        <v>1.059402647508814</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -5601,25 +5601,25 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>3.462953660680649</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>23.95471404368332</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>1.005439611249116</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.038362066493739</v>
+        <v>1.000901696993742</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>2.540958812563751</v>
+        <v>13.01059126463586</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>2.080922455081532</v>
+        <v>1.046087148100987</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.059402647508814</v>
+        <v>1.759265935838994</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v>1.048748171309495</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.042328349430411</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v>1.007304052774798</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>3.462953660680648</v>
+        <v>1.005025088588608</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.005439611249116</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.000901696993742</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>1.000586721036149</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1</v>
+        <v>1.00058637699643</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,25 +5733,25 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>13.01059126463586</v>
+        <v>31.24567134923228</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.046087148100987</v>
+        <v>1.08177284275901</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.759265935838994</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.048748171309495</v>
+        <v>2.305855176679811</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.042328349430411</v>
+        <v>4.327371496355414</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.007304052774798</v>
+        <v>1.031138305724365</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.005025088588608</v>
+        <v>1.014864622405337</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>1</v>
@@ -5760,10 +5760,10 @@
         <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1</v>
+        <v>1.068726772896197</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.000586721036149</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,25 +5808,25 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>31.24567134923228</v>
+        <v>26.84954462659381</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.08177284275901</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v>1.062454207484193</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>2.305855176679811</v>
+        <v>11.37710235617138</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>4.327371496355414</v>
+        <v>1.025955118735997</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.031138305724365</v>
+        <v>1.058699769257785</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.014864622405337</v>
+        <v>1.002818141514728</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
@@ -5835,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.068726772896197</v>
+        <v>1.00098929704262</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>26.84954462659381</v>
+        <v>3.288299610405932</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1</v>
+        <v>1.090999426715078</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.062454207484193</v>
+        <v>5.085370980172354</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>11.37710235617138</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.025955118735997</v>
+        <v>1.453023069981469</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.058699769257785</v>
+        <v>1.003351806989015</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.002818141514728</v>
+        <v>1.007569529101579</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>1.001500656537235</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>3.288299610405932</v>
+        <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.090999426715078</v>
+        <v>3.164161392405063</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>5.085370980172354</v>
+        <v>3.157227986831688</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>1.044876194498706</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.453023069981469</v>
+        <v>1.052182810368349</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.003351806989015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.007569529101579</v>
+        <v>1.516237469235848</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1</v>
+        <v>1.024126054079734</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6036,22 +6036,22 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>3.164161392405063</v>
+        <v>1.133725944360939</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>3.157227986831688</v>
+        <v>1.738274288198218</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.044876194498706</v>
+        <v>1.012515941884018</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.052182810368349</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.516237469235848</v>
+        <v>1.003951641783672</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,16 +6108,16 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v/>
+        <v>4.448797250859106</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.133725944360939</v>
+        <v>4.186200019662093</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.738274288198218</v>
+        <v>1.024303016070051</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.012515941884018</v>
+        <v>1.032753165593455</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>1</v>
@@ -6183,16 +6183,16 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>4.448797250859106</v>
+        <v>13.31097079715864</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>4.186200019662093</v>
+        <v>2.188259709457456</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.024303016070051</v>
+        <v>1</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.032753165593455</v>
+        <v>1.007126405636093</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>13.31097079715864</v>
+        <v>140.3263207106124</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>2.188259709457456</v>
+        <v>1.576846194337649</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1</v>
+        <v>1.706752334128455</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.007126405636093</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>140.3263207106124</v>
+        <v>12.94862593257154</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.576846194337649</v>
+        <v>1.529089145449374</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.706752334128455</v>
+        <v>1.082439019736905</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>12.94862593257154</v>
+        <v>18.66371976647206</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.529089145449374</v>
+        <v>1.094531187158702</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>18.66371976647206</v>
+        <v>8.289906232763375</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.006824243316637208</v>
+        <v>0.007759581672001525</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.006105786406027641</v>
+        <v>0.005859459515748337</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.001390420184603347</v>
+        <v>0.02169848352571648</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.01359026404222064</v>
+        <v>0.03160413896125241</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>6.197946285104701e-05</v>
+        <v>6.518775041605369e-05</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.0001031597865354914</v>
+        <v>0.0001042245124460381</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>6.715859440612418e-06</v>
+        <v>0.007413550273080592</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.006376425011792599</v>
+        <v>0.0345594622018263</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.006105786406027641</v>
+        <v>0.005859459515748337</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>9.502582876236923</v>
+        <v>9.332576326550075</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>11.89178220494007</v>
+        <v>14.78249228366368</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>17.55388868015673</v>
+        <v>15.74116605866989</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>29.33076964161727</v>
+        <v>12.63791960700222</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>19.36407409124247</v>
+        <v>19.02121078320364</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>26.66335001211054</v>
+        <v>27.23824475413051</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>37.93968689153476</v>
+        <v>32.99805678173953</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>57.31288880321868</v>
+        <v>13.30075064393566</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>11.89178220494007</v>
+        <v>14.78249228366368</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.064847937683951</v>
+        <v>0.07241688821605327</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.0726086821303645</v>
+        <v>0.08661741507798951</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.02440728113917012</v>
+        <v>0.3415594323996159</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.398612903991128</v>
+        <v>0.3994105674408347</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.001200174910783084</v>
+        <v>0.001239949941146628</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.002750585495570416</v>
+        <v>0.002838892779385108</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.0002547976043843929</v>
+        <v>0.244632752865394</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.3654513376629315</v>
+        <v>0.4596667891350111</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.0726086821303645</v>
+        <v>0.08661741507798951</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>3.304657170261385</v>
+        <v>3.214515158470691</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.551696653231898</v>
+        <v>1.521636213664628</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.905323940369699</v>
+        <v>1.760989295729232</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.606729072762053</v>
+        <v>1.466652705950907</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>6.139719206683786</v>
+        <v>6.119450190194054</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.757476900927979</v>
+        <v>1.764382955457323</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>2.296380400945429</v>
+        <v>1.951442033404369</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.764731683081493</v>
+        <v>1.400155508981908</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.551696653231898</v>
+        <v>1.521636213664628</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.2143002022439321</v>
+        <v>0.2327851848997808</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.1126666490572653</v>
+        <v>0.1318001955166895</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.04650377707379465</v>
+        <v>0.6014825043110759</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6404629416206545</v>
+        <v>0.5857965895224874</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.007368736951114902</v>
+        <v>0.007587811903180836</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.004834090472492543</v>
+        <v>0.005008894032317951</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.0005851122249161671</v>
+        <v>0.4773866366889529</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.6449235541982882</v>
+        <v>0.643604987103411</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.1126666490572653</v>
+        <v>0.1318001955166895</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.164008226203702</v>
+        <v>1.16299028194088</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.490610202074475</v>
+        <v>1.450541309393514</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.576546830893385</v>
+        <v>1.395405423666131</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.404352666818902</v>
+        <v>1.464859250684817</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.486989053197451</v>
+        <v>1.48993941953642</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.780772584770553</v>
+        <v>1.778979970438863</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>2.285321434233461</v>
+        <v>1.618166107494219</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.243685116732835</v>
+        <v>1.263063784621787</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.490610202074475</v>
+        <v>1.450541309393514</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.249447198289054</v>
+        <v>0.2707269078182559</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.1679420565183042</v>
+        <v>0.1911816281830999</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.07331538237026343</v>
+        <v>0.8393119487559624</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.899435840063645</v>
+        <v>0.8581095531816324</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.01095723118219942</v>
+        <v>0.01130538006257679</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.008608415785715251</v>
+        <v>0.008910722157544387</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.001337169509032946</v>
+        <v>0.7724908756607199</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.8020818257868531</v>
+        <v>0.8129141508122905</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.1679420565183042</v>
+        <v>0.1911816281830999</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.350904484785085</v>
+        <v>1.282241377871841</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.616881300517664</v>
+        <v>1.410199611851985</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>2.091209988158314</v>
+        <v>1.01003263783031</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.025107710269177</v>
+        <v>1.008868219405444</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>2.625887956172319</v>
+        <v>2.544036971078421</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>2.035311714422237</v>
+        <v>1.985748117647747</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>2.745729010630609</v>
+        <v>1.016211951268712</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.017465171037855</v>
+        <v>1.013293190409849</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.616881300517664</v>
+        <v>1.410199611851985</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.3369793388857575</v>
+        <v>0.3471372433078634</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.2715423707549268</v>
+        <v>0.269604257857038</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.1533178598983409</v>
+        <v>0.8477324615644829</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9220186145416772</v>
+        <v>0.8657194569731543</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.02877246139433323</v>
+        <v>0.02876130485128823</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.01752080949128356</v>
+        <v>0.01769444975122583</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.003671505113082448</v>
+        <v>0.7850144600924562</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8160903220605755</v>
+        <v>0.8237203734058989</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.2715423707549268</v>
+        <v>0.269604257857038</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.181438615570783</v>
+        <v>1.185703366556265</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.341620794567921</v>
+        <v>1.340276919643425</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.506741687956158</v>
+        <v>1.0586552018988</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.008688482870165</v>
+        <v>1</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>1.334378383413701</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.339186837939921</v>
+        <v>1.325071737072637</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.643088749240205</v>
+        <v>1.088526833180969</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.017394270122783</v>
+        <v>1</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.341620794567921</v>
+        <v>1.340276919643425</v>
       </c>
     </row>
     <row r="7">
@@ -7023,47 +7023,47 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.3981204036091471</v>
+        <v>0.4116017980471949</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.3643068912110818</v>
+        <v>0.3613443642433827</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.2310104110170519</v>
+        <v>0.897456380253714</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9300295574800957</v>
+        <v>0.8657194569731543</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.03839335052220349</v>
+        <v>0.03837846347233062</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.02346363746077979</v>
+        <v>0.0234464152684013</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.006032608744083656</v>
+        <v>0.8545093042457096</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8302856175670863</v>
+        <v>0.8237203734058989</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.3643068912110818</v>
+        <v>0.3613443642433827</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.055091172759052</v>
+        <v>1.054472956985421</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.110692205617429</v>
+        <v>1.10983892739811</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.031618879940483</v>
+        <v>1.03280569755624</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.001884303247558</v>
+        <v>1</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>1.432036305112748</v>
@@ -7072,13 +7072,13 @@
         <v>1.647476981816621</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.016748989124327</v>
+        <v>1.015531646995194</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.001117268996339</v>
+        <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.110692205617429</v>
+        <v>1.10983892739811</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.4200533235432823</v>
+        <v>0.4340229650873418</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.4046328245208652</v>
+        <v>0.4010340416332278</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.2383147014680016</v>
+        <v>0.9268980628342349</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9317820151955803</v>
+        <v>0.8657194569731543</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.05498067182271489</v>
+        <v>0.05495935302682092</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.03865580262632489</v>
+        <v>0.03862742946080491</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.006133648842329633</v>
+        <v>0.8677812411133631</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.8312132699456999</v>
+        <v>0.8237203734058989</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.4046328245208652</v>
+        <v>0.4010340416332278</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.058962974305615</v>
+        <v>1.059767446708189</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.069553119485011</v>
+        <v>1.115892445801393</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.151244441363191</v>
+        <v>1.022434677640455</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.03748558520884</v>
+        <v>1.119501372661687</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.181142373950606</v>
+        <v>1.180669690992651</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.255477092068176</v>
+        <v>1.2558013251219</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.501578085254458</v>
+        <v>1.091744415438296</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.175541713284052</v>
+        <v>1.175919546707033</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.069553119485011</v>
+        <v>1.115892445801393</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.4448209168663533</v>
+        <v>0.4599634095233299</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.4327762997123223</v>
+        <v>0.4475108575677204</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.274358475360165</v>
+        <v>0.9476927220794832</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9691741204213764</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.06494000123808066</v>
+        <v>0.06488884235533267</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.04853147467285975</v>
+        <v>0.04850837710293154</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.009210152684288554</v>
+        <v>0.9473953238076271</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9771258714564072</v>
+        <v>0.9686288881088126</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.4327762997123223</v>
+        <v>0.4475108575677204</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.141761080119257</v>
+        <v>1.143949689943302</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.159309331877449</v>
+        <v>1.160819614786237</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.294490103486976</v>
+        <v>1.000873766919018</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1</v>
+        <v>1.002326094474399</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>2.443426844143255</v>
+        <v>2.444934722523238</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>2.91854200631909</v>
+        <v>2.919364745072893</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>4.82578567394722</v>
+        <v>1.004021009013289</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1</v>
+        <v>1.008042018026578</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.159309331877449</v>
+        <v>1.160819614786237</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.5078792105009658</v>
+        <v>0.5261749997094772</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.5017216028718872</v>
+        <v>0.5194793812944196</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.355154331161509</v>
+        <v>0.9485207846294303</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9714285109876195</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.1586761422838225</v>
+        <v>0.1586489837788894</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.1416411474613522</v>
+        <v>0.1416136459549995</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.04444622287870624</v>
+        <v>0.9512048089438053</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9771258714564072</v>
+        <v>0.9764186190880478</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.5017216028718872</v>
+        <v>0.5194793812944196</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.075006694918287</v>
+        <v>1.07518908830912</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.081018489832194</v>
+        <v>1.082617798676337</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.11954932712066</v>
+        <v>1.000753312931864</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1</v>
+        <v>1.000141343318061</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.139889759969698</v>
+        <v>1.139989803738847</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.174050064490106</v>
+        <v>1.174175119201543</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.26089577360884</v>
+        <v>1.001156711297725</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1</v>
+        <v>1.000500218845745</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.081018489832194</v>
+        <v>1.082617798676337</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.5459735514983525</v>
+        <v>0.5657376182286845</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.5423703294527551</v>
+        <v>0.5623976242347098</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.3976127924758553</v>
+        <v>0.9492353176026339</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9667104093222588</v>
+        <v>0.9715658159166214</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.180873309740824</v>
+        <v>0.1808582238814637</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.1662937983114532</v>
+        <v>0.1662792196197766</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.05604205458063721</v>
+        <v>0.9523050782927612</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9771258714564072</v>
+        <v>0.9769070420826521</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.5423703294527551</v>
+        <v>0.5623976242347098</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.099758194742944</v>
+        <v>1.092288807350677</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.104574431945886</v>
+        <v>1.096916659736163</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.212650498802147</v>
+        <v>1.022792533993138</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.034284603025576</v>
+        <v>1.028969764902327</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.617407525843447</v>
+        <v>1.617478189917919</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.71921696233375</v>
+        <v>1.719299403753968</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>2.437956865425276</v>
+        <v>1.01816330557105</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.023209489963313</v>
+        <v>1.023238689979606</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.104574431945886</v>
+        <v>1.096916659736163</v>
       </c>
     </row>
     <row r="12">
@@ -7343,47 +7343,47 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.6004388873732218</v>
+        <v>0.6179488682884225</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.5990883985595801</v>
+        <v>0.6169033234190919</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.4821653511259605</v>
+        <v>0.970870795846579</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9998536919465648</v>
+        <v>0.9997118491908633</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.2925458523990215</v>
+        <v>0.2925342325955597</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.2858951187879578</v>
+        <v>0.2858837631489571</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.1366281117174026</v>
+        <v>0.9696020864266551</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9998044645628683</v>
+        <v>0.9996090819725045</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.5990883985595801</v>
+        <v>0.6169033234190919</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.090393371360139</v>
+        <v>1.081761880645727</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.092851379316947</v>
+        <v>1.083595280695962</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.192838995228502</v>
+        <v>1.001416715953552</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.000146329462614</v>
+        <v>1.000141905048671</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>1.387259111098604</v>
@@ -7392,13 +7392,13 @@
         <v>1.419530703690154</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.839061407380309</v>
+        <v>1.001396486183122</v>
       </c>
       <c r="U12" s="22" t="n">
         <v>1.000195573678716</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.092851379316947</v>
+        <v>1.083595280695962</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.6547145826986182</v>
+        <v>0.6684735299025827</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.6547145826986182</v>
+        <v>0.6684735299025827</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.5751456329710884</v>
+        <v>0.9722462439918923</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>1</v>
+        <v>0.9998537133494797</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.40583689915465</v>
+        <v>0.4058207794764284</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.40583689915465</v>
+        <v>0.4058207794764284</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.2512674874227204</v>
+        <v>0.9709561223434759</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>1</v>
+        <v>0.9998045791979443</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.6547145826986182</v>
+        <v>0.6684735299025827</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.13575982198818</v>
+        <v>1.131208640370277</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.13575982198818</v>
+        <v>1.131208640370277</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.253971533267368</v>
+        <v>1.001603688340014</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1</v>
+        <v>1.000146308053435</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.23019396172803</v>
+        <v>1.230242826477733</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.23019396172803</v>
+        <v>1.230242826477733</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.460056206426843</v>
+        <v>1.00153772968321</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1</v>
+        <v>1.00019545899881</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.13575982198818</v>
+        <v>1.131208640370277</v>
       </c>
     </row>
     <row r="14">
@@ -7471,13 +7471,13 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.7435985178988479</v>
+        <v>0.7561830328846203</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.7435985178988479</v>
+        <v>0.7561830328846203</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.7212162512287864</v>
+        <v>0.9738054239570044</v>
       </c>
       <c r="E14" s="34" t="n">
         <v>1</v>
@@ -7489,26 +7489,26 @@
         <v>0.499258102786478</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.3668646544848216</v>
+        <v>0.9724491903938983</v>
       </c>
       <c r="I14" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.7435985178988479</v>
+        <v>0.7561830328846203</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.096352340536604</v>
+        <v>1.093228208041043</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.096352340536604</v>
+        <v>1.093228208041043</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.111314420202917</v>
+        <v>1.025209743518595</v>
       </c>
       <c r="Q14" s="22" t="n">
         <v>1</v>
@@ -7520,13 +7520,13 @@
         <v>1.038932412432321</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.071376089459255</v>
+        <v>1.026832133174022</v>
       </c>
       <c r="U14" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.096352340536604</v>
+        <v>1.093228208041043</v>
       </c>
     </row>
     <row r="15">
@@ -7535,13 +7535,13 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.815245975517952</v>
+        <v>0.8266806219914945</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.815245975517952</v>
+        <v>0.8266806219914945</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.8014980200752398</v>
+        <v>0.9983548089319773</v>
       </c>
       <c r="E15" s="34" t="n">
         <v>1</v>
@@ -7553,26 +7553,26 @@
         <v>0.5186954251543393</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.3930500188827688</v>
+        <v>0.9985420765755172</v>
       </c>
       <c r="I15" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.815245975517952</v>
+        <v>0.8266806219914945</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.043915149002396</v>
+        <v>1.040288704403974</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.043915149002396</v>
+        <v>1.040288704403974</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.049682293693387</v>
+        <v>1.001647902181974</v>
       </c>
       <c r="Q15" s="22" t="n">
         <v>1</v>
@@ -7584,13 +7584,13 @@
         <v>1.206806228043125</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.344677046738541</v>
+        <v>1.001460052068595</v>
       </c>
       <c r="U15" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.043915149002396</v>
+        <v>1.040288704403974</v>
       </c>
     </row>
     <row r="16">
@@ -7599,13 +7599,13 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.8510476240064262</v>
+        <v>0.8599865132074028</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.8510476240064262</v>
+        <v>0.8599865132074028</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.8413182801032858</v>
+        <v>1</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>1</v>
@@ -7617,26 +7617,26 @@
         <v>0.625964869533733</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.5285253386118094</v>
+        <v>1</v>
       </c>
       <c r="I16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.8510476240064262</v>
+        <v>0.8599865132074028</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.110983149311433</v>
+        <v>1.103405645264639</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.110983149311433</v>
+        <v>1.103405645264639</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.120718168237242</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="22" t="n">
         <v>1</v>
@@ -7648,13 +7648,13 @@
         <v>1.296742879122742</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.445114318684113</v>
+        <v>1</v>
       </c>
       <c r="U16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.110983149311433</v>
+        <v>1.103405645264639</v>
       </c>
     </row>
     <row r="17">
@@ -7663,13 +7663,13 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9454995695326721</v>
+        <v>0.948913973524501</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9454995695326721</v>
+        <v>0.948913973524501</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9428806817818615</v>
+        <v>1</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
@@ -7681,26 +7681,26 @@
         <v>0.8117154871488644</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.763779534615295</v>
+        <v>1</v>
       </c>
       <c r="I17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9454995695326721</v>
+        <v>0.948913973524501</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.057641941068535</v>
+        <v>1.053836309613771</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.057641941068535</v>
+        <v>1.053836309613771</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.060579582678684</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
@@ -7712,13 +7712,13 @@
         <v>1.231958753814691</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.309278338419589</v>
+        <v>1</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.057641941068535</v>
+        <v>1.053836309613771</v>
       </c>
     </row>
     <row r="18">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>24142.31666666667</v>
+        <v>23964.32166666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>41.02</v>
+        <v>224.75</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>565.0799999999999</v>
+        <v>838.9399999999999</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>847.5699999999999</v>
+        <v>884.3499999999999</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>867.4299999999999</v>
+        <v>964.3499999999999</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>2287.43</v>
+        <v>1164.35</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>2287.43</v>
+        <v>2092.84</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>2287.43</v>
+        <v>2092.84</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2092.84</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2092.84</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2092.84</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>23964.32166666667</v>
+        <v>23798.84</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>224.75</v>
+        <v>78.02000000000001</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>838.9399999999999</v>
+        <v>1138.38</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>884.3499999999999</v>
+        <v>1138.38</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>964.3499999999999</v>
+        <v>1177</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>1164.35</v>
+        <v>1194.57</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>2092.84</v>
+        <v>2794.57</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>2092.84</v>
+        <v>2794.57</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>2092.84</v>
+        <v>2794.57</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>2092.84</v>
+        <v>2813.57</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>2092.84</v>
+        <v>2840.99</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>23798.84</v>
+        <v>23172.67083333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>78.02000000000001</v>
+        <v>78.11</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1138.38</v>
+        <v>303.38</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1138.38</v>
+        <v>422.01</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1177</v>
+        <v>512.88</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>1194.57</v>
+        <v>3512.88</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>2794.57</v>
+        <v>3512.88</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>2794.57</v>
+        <v>3512.88</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>2794.57</v>
+        <v>3518.88</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>2813.57</v>
+        <v>3749.46</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>2840.99</v>
+        <v>13763.09</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>23172.67083333333</v>
+        <v>22582.26416666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>78.11</v>
+        <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>303.38</v>
+        <v>74.48</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>422.01</v>
+        <v>1923.78</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>512.88</v>
+        <v>1923.78</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>3512.88</v>
+        <v>1923.78</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>3512.88</v>
+        <v>1923.78</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>3512.88</v>
+        <v>1923.78</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>3518.88</v>
+        <v>1923.78</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>3749.46</v>
+        <v>5969.31</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>22582.26416666667</v>
+        <v>22313.55583333333</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9123,61 +9123,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>74.48</v>
+        <v>399.96</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1923.78</v>
+        <v>27418.06</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1923.78</v>
+        <v>27418.06</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>1923.78</v>
+        <v>27418.06</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>1923.78</v>
+        <v>27421.06</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>1923.78</v>
+        <v>27611.08</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>1923.78</v>
+        <v>27612.76</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>1951.2</v>
+        <v>29091.06</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>1951.2</v>
+        <v>29091.06</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>1951.2</v>
+        <v>29091.06</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>1951.2</v>
+        <v>29091.06</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>1951.2</v>
+        <v>29148.96</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>1951.2</v>
+        <v>36939.42</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>22313.55583333333</v>
+        <v>21819.67916666666</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v/>
+        <v>100.33</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>399.96</v>
+        <v>622.8800000000001</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>27418.06</v>
+        <v>822.8800000000001</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>27418.06</v>
+        <v>828.9400000000001</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>27418.06</v>
+        <v>2505.69</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>27421.06</v>
+        <v>2871.55</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>27611.08</v>
+        <v>2871.55</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>27612.76</v>
+        <v>2871.55</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>29091.06</v>
+        <v>2871.55</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>29091.06</v>
+        <v>4374.02</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>29091.06</v>
+        <v>4386.540000000001</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>29091.06</v>
+        <v>4386.540000000001</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>29148.96</v>
+        <v>16456.97</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>36939.42</v>
+        <v>16456.97</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>16594.01</v>
+        <v>10902.21</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>21819.67916666666</v>
+        <v>21537.36666666666</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>100.33</v>
+        <v>105.41</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>622.88</v>
+        <v>105.41</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>822.88</v>
+        <v>111.42</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>828.9399999999999</v>
+        <v>111.42</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>2505.69</v>
+        <v>1266.02</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>2871.55</v>
+        <v>1480.46</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>2871.55</v>
+        <v>1531.5</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>2871.55</v>
+        <v>1558.32</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>2871.55</v>
+        <v>1558.32</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>4374.02</v>
+        <v>1558.32</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>4386.540000000001</v>
+        <v>1558.32</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>4386.540000000001</v>
+        <v>9390.42</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>16456.97</v>
+        <v>9390.42</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>16456.97</v>
+        <v>10902.21</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>16594.01</v>
+        <v>10902.21</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>16594.01</v>
+        <v>10902.21</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>16594.01</v>
+        <v>10902.21</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>16594.01</v>
+        <v>10902.21</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>10902.21</v>
+        <v>8780.07</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>21537.36666666666</v>
+        <v>21386.11833333334</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>105.41</v>
+        <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>105.41</v>
+        <v/>
       </c>
       <c r="U15" s="22" t="n">
-        <v>111.42</v>
+        <v/>
       </c>
       <c r="V15" s="22" t="n">
-        <v>111.42</v>
+        <v>541.9299999999999</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>1266.02</v>
+        <v>864.25</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>1480.46</v>
+        <v>864.25</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>1531.5</v>
+        <v>887.13</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>1558.32</v>
+        <v>914.4</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>1558.32</v>
+        <v>914.4</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>1558.32</v>
+        <v>914.4</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>1558.32</v>
+        <v>8704.860000000001</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>9390.42</v>
+        <v>8704.860000000001</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>9390.42</v>
+        <v>8780.07</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>10902.21</v>
+        <v>8780.07</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>10902.21</v>
+        <v>8780.07</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>10902.21</v>
+        <v>8780.07</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>10902.21</v>
+        <v>8780.07</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>8780.07</v>
+        <v>8926.6</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>21386.11833333333</v>
+        <v>21237.95833333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9634,46 +9634,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v/>
+        <v>361.23</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>541.9299999999999</v>
+        <v>398.78</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>864.25</v>
+        <v>398.78</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>864.25</v>
+        <v>398.78</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>887.13</v>
+        <v>3432.81</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>914.4</v>
+        <v>3460.08</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>914.4</v>
+        <v>3460.08</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>914.4</v>
+        <v>8857.58</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>8704.860000000001</v>
+        <v>8857.58</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>8704.860000000001</v>
+        <v>8926.6</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>8780.07</v>
+        <v>8926.6</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>8780.07</v>
+        <v>8926.6</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>8780.07</v>
+        <v>8926.6</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>8780.07</v>
+        <v>8926.6</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>8926.6</v>
+        <v>10864.32</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>21237.95833333333</v>
+        <v>21061.72166666667</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9758,46 +9758,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v/>
+        <v>258.18</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>361.23</v>
+        <v>261.19</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>398.78</v>
+        <v>436.78</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>398.78</v>
+        <v>436.78</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>398.78</v>
+        <v>436.78</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>3432.81</v>
+        <v>436.78</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>3460.08</v>
+        <v>436.78</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>3460.08</v>
+        <v>10462.94</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>8857.58</v>
+        <v>10462.94</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>8857.58</v>
+        <v>10864.32</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>8926.6</v>
+        <v>10864.32</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>8926.6</v>
+        <v>10864.32</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>8926.6</v>
+        <v>10864.32</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>8926.6</v>
+        <v>10864.32</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>10864.32</v>
+        <v>5550.1</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>21061.72166666667</v>
+        <v>20916.385</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v/>
+        <v>284.31</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>258.18</v>
+        <v>722.4200000000001</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>261.19</v>
+        <v>1503.3</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>436.78</v>
+        <v>1592.6</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>436.78</v>
+        <v>1592.6</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>436.78</v>
+        <v>1592.6</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>436.78</v>
+        <v>1592.6</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>436.78</v>
+        <v>5515.1</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>10462.94</v>
+        <v>5515.1</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>10462.94</v>
+        <v>5545.1</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>10864.32</v>
+        <v>5550.1</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>10864.32</v>
+        <v>5550.1</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>10864.32</v>
+        <v>5550.1</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>10864.32</v>
+        <v>5550.1</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>5550.1</v>
+        <v>5460.44</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>20916.385</v>
+        <v>20785.00416666667</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>284.31</v>
+        <v>205.83</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>722.4200000000001</v>
+        <v>2677.97</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1503.3</v>
+        <v>2801.39</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1592.6</v>
+        <v>4928.389999999999</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>1592.6</v>
+        <v>5168.639999999999</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>1592.6</v>
+        <v>5387.419999999999</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>1592.6</v>
+        <v>5426.77</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>5515.1</v>
+        <v>5454.04</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>5515.1</v>
+        <v>5454.04</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>5545.1</v>
+        <v>5454.04</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>5550.1</v>
+        <v>5454.04</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>5550.1</v>
+        <v>5457.24</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>5550.1</v>
+        <v>5460.44</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>5457.24</v>
+        <v>11546.15</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>20785.00416666667</v>
+        <v>20653.01</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>205.83</v>
+        <v>30.61</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>2677.97</v>
+        <v>956.4300000000001</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>2801.39</v>
+        <v>1034.64</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>4928.389999999999</v>
+        <v>1034.64</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>5168.639999999999</v>
+        <v>2385.73</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>5387.419999999999</v>
+        <v>10323.94</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>5426.77</v>
+        <v>10645.41</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>5454.04</v>
+        <v>10803.65</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>5454.04</v>
+        <v>10803.65</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>5454.04</v>
+        <v>10803.65</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>5454.04</v>
+        <v>11546.15</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>5457.24</v>
+        <v>11546.15</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>11546.15</v>
+        <v>9713.460000000001</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>20653.01</v>
+        <v>20523.28416666667</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>30.61</v>
+        <v>27.45</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>956.4300000000001</v>
+        <v>737.0200000000001</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1034.64</v>
+        <v>737.0200000000001</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1034.64</v>
+        <v>783.0500000000001</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>2385.73</v>
+        <v>8908.84</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>10323.94</v>
+        <v>9140.07</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>10645.41</v>
+        <v>9676.59</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>10803.65</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>10803.65</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>10803.65</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>11546.15</v>
+        <v>9713.460000000001</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>9703.860000000001</v>
+        <v>2135.6</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>20523.28416666667</v>
+        <v>20272.995</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>27.45</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>737.0200000000001</v>
+        <v>261.65</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>737.0200000000001</v>
+        <v>285.46</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>783.0500000000001</v>
+        <v>1451.67</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>8908.84</v>
+        <v>1451.67</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>9140.07</v>
+        <v>2109.31</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>9676.59</v>
+        <v>2116.38</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>9703.860000000001</v>
+        <v>2132.4</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>9703.860000000001</v>
+        <v>2132.4</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>9703.860000000001</v>
+        <v>2135.6</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>2132.4</v>
+        <v>1293.42</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>20272.995</v>
+        <v>20221.4275</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>79.56999999999999</v>
+        <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>261.65</v>
+        <v>75.84</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>285.46</v>
+        <v>239.97</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>1451.67</v>
+        <v>757.64</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>1451.67</v>
+        <v>791.64</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>2109.31</v>
+        <v>832.95</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>2116.38</v>
+        <v>832.95</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>2132.4</v>
+        <v>1262.95</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>2132.4</v>
+        <v>1293.42</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>1262.95</v>
+        <v>812.99</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>20221.4275</v>
+        <v>20164</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10697,25 +10697,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>75.84</v>
+        <v>405.83</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>239.97</v>
+        <v>460.1</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>757.64</v>
+        <v>799.78</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>791.64</v>
+        <v>809.79</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>832.95</v>
+        <v>809.79</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>832.95</v>
+        <v>809.79</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>1262.95</v>
+        <v>812.99</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>809.79</v>
+        <v>3153.14</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>20164</v>
+        <v>19697.08666666667</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v/>
+        <v>160.05</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>405.83</v>
+        <v>712.03</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>460.1</v>
+        <v>2980.7</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>799.78</v>
+        <v>3053.14</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>809.79</v>
+        <v>3153.14</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>809.79</v>
+        <v>3153.14</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>809.79</v>
+        <v>3153.14</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>3153.14</v>
+        <v>743.3599999999999</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>19697.08666666667</v>
+        <v>19600.65</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>160.05</v>
+        <v>25.34</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>712.03</v>
+        <v>337.3</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>2980.7</v>
+        <v>738.0999999999999</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>3053.14</v>
+        <v>738.0999999999999</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>3153.14</v>
+        <v>743.3599999999999</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>3153.14</v>
+        <v>743.3599999999999</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>743.3599999999999</v>
+        <v>8078.11</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>19600.65</v>
+        <v>19349.41833333333</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>25.34</v>
+        <v>21.39</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>337.3</v>
+        <v>3001.58</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>738.0999999999999</v>
+        <v>4733.03</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>738.0999999999999</v>
+        <v>8078.11</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>743.3599999999999</v>
+        <v>8078.11</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>8078.11</v>
+        <v>2269.42</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>19349.41833333333</v>
+        <v>19166.44833333333</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>21.39</v>
+        <v>105.89</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>3001.58</v>
+        <v>1371.13</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>4733.03</v>
+        <v>2096.58</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>8078.11</v>
+        <v>2269.42</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>2096.58</v>
+        <v>1224.66</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>19166.44833333333</v>
+        <v>19066.7175</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>80</v>
@@ -11384,13 +11384,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>105.89</v>
+        <v>59.95</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>1371.13</v>
+        <v>1118.89</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>2096.58</v>
+        <v>1224.66</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11464,7 +11464,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>1118.89</v>
+        <v>751.4799999999999</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11491,7 +11491,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>19066.7175</v>
+        <v>18818.15</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>60</v>
@@ -11522,10 +11522,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>59.95</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>1118.89</v>
+        <v>751.4799999999999</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11602,7 +11602,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>90.65000000000001</v>
+        <v>147.66</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>18818.15</v>
+        <v>18201.83666666667</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>60</v>
@@ -11660,7 +11660,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>90.65000000000001</v>
+        <v>147.66</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
